--- a/medicine/Handicap/Prisme_(équipement_sportif)/Prisme_(équipement_sportif).xlsx
+++ b/medicine/Handicap/Prisme_(équipement_sportif)/Prisme_(équipement_sportif).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prisme_(%C3%A9quipement_sportif)</t>
+          <t>Prisme_(équipement_sportif)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prisme (Pôle de Référence Inclusif Sportif Métropolitain) est un équipement sportif destiné au parasport en construction à Bobigny (Seine-Saint-Denis).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prisme_(%C3%A9quipement_sportif)</t>
+          <t>Prisme_(équipement_sportif)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">le Prisme est un équipement sportif multisports à l’accessibilité universelle destiné particulièrement au handisport au sport adapté construit par le Département de la Seine-Saint-Denis sur l'emprise du stade de la Motte à Bobigny, près de l’hôpital Avicenne et à proximité de l’université Sorbonne Paris Nord[2]. Sa première pierre est posée en présence du président du Cojo de Paris 2024 Tony Estanguet et des partenaires institutionnels le 8 octobre 2022[3]. Il comprend notamment deux salles multisports, un mur d'escalade, une salle d'armes de six pistes pouvant accueillir le tir à l'arc ou une aire de lancer virtuelle. Plusieurs espaces seront également destinés à la pratique de la boccia, la danse, le e-sport et la musculation, ainsi qu'une salle de motricité sécurisée pour les personnes polyhandicapées[3]. Ce complexe sportif est bâti de deux étages pourra accueillir jusqu’à 1 500 usagers simultanément[1]. L'équipement doit être livré en mars 2024 pour les JOP[1] et ouvrir au grand public en octobre 2024[2].
-L'investissement est de 55,5 millions d’euros hors taxes, financé par le Département de la Seine-Saint-Denis, avec, en octobre 2022, les contributions de la Métropole du Grand Paris (13 M€), de la Solideo (4 M€), de la Région Île-de-France (4 M€), du Fonds de Solidarité et d’Investissement Interdépartemental (2,3 M€), et de la Ville de Bobigny (500 000 €)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">le Prisme est un équipement sportif multisports à l’accessibilité universelle destiné particulièrement au handisport au sport adapté construit par le Département de la Seine-Saint-Denis sur l'emprise du stade de la Motte à Bobigny, près de l’hôpital Avicenne et à proximité de l’université Sorbonne Paris Nord. Sa première pierre est posée en présence du président du Cojo de Paris 2024 Tony Estanguet et des partenaires institutionnels le 8 octobre 2022. Il comprend notamment deux salles multisports, un mur d'escalade, une salle d'armes de six pistes pouvant accueillir le tir à l'arc ou une aire de lancer virtuelle. Plusieurs espaces seront également destinés à la pratique de la boccia, la danse, le e-sport et la musculation, ainsi qu'une salle de motricité sécurisée pour les personnes polyhandicapées. Ce complexe sportif est bâti de deux étages pourra accueillir jusqu’à 1 500 usagers simultanément. L'équipement doit être livré en mars 2024 pour les JOP et ouvrir au grand public en octobre 2024.
+L'investissement est de 55,5 millions d’euros hors taxes, financé par le Département de la Seine-Saint-Denis, avec, en octobre 2022, les contributions de la Métropole du Grand Paris (13 M€), de la Solideo (4 M€), de la Région Île-de-France (4 M€), du Fonds de Solidarité et d’Investissement Interdépartemental (2,3 M€), et de la Ville de Bobigny (500 000 €).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prisme_(%C3%A9quipement_sportif)</t>
+          <t>Prisme_(équipement_sportif)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parc des sports de Marville
 Stade Raoul-Montbrand</t>
